--- a/biology/Microbiologie/Bouillon_Schaedler/Bouillon_Schaedler.xlsx
+++ b/biology/Microbiologie/Bouillon_Schaedler/Bouillon_Schaedler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu de culture liquide pour la culture de bactéries anaérobies.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>peptone trypticase soja :...................10,0g/L
 peptone :........................................5,0g/L
@@ -548,7 +562,9 @@
           <t>Protocole d'ensemencement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>le milieu est régénéré avant l'emploi (20 à 30 minutes à 100 °C)
 Deux à trois gouttes d'une suspension bactérienne dense sont déposées à la pipette au fond du tube, en évitant d'introduire de l'air.
@@ -581,7 +597,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'addition d'agents sélectifs permet la culture de bactéries délicates ou exigeantes. Par exemple, l'addition de 2g de placenta en poudre et de 2mg de néomycine par litre de milieu permet la culture sélective de Bactéroïdes et de Clostridium. La cystéine inhibe la croissance d'Escherichia coli.
 Isolement des anaérobies
